--- a/results/DT/75Hz_2classes_normalized/res_hyperopt.xlsx
+++ b/results/DT/75Hz_2classes_normalized/res_hyperopt.xlsx
@@ -470,19 +470,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D2" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'max_depth': 65, 'max_features': 0.08989087729912715, 'min_samples_leaf': 0.0017819943366783105, 'min_samples_split': 0.0013202347968858386}</t>
+          <t>{'max_depth': 23, 'max_features': 0.3005412516241407, 'min_samples_leaf': 0.004550746865868739, 'min_samples_split': 0.0011111167454854777}</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.021, 'mean_10_25': 0.015, 'max_10_25': 0.137, 'kurt_10_25': 0.04, 'skew_10_25': 0.016, 'entropy_10_25': 0.014, 'score_at_perc_10_25': 0.063, 'coef_var_10_25': 0.032, 'min_10_25': 0.036, 'std_class_10_25': 0.058, 'var_10_25': 0.104, 'mean_10_50': 0.002, 'max_10_50': 0.053, 'kurt_10_50': 0.038, 'mad_10_50': 0.018, 'percScore_10_50': 0.056, 'score_at_perc_10_50': 0.024, 'coef_kstatvar_10_50': 0.014, 'min_10_50': 0.013, 'std_class_10_50': 0.05, 'var_10_50': 0.03, 'kurt_25_75': 0.021, 'skew_25_75': 0.055, 'percScore_25_75': 0.06, 'entropy_25_75': 0.013, 'score_at_perc_25_75': 0.008, 'std_class_25_75': 0.01}</t>
+          <t>{'var_25_75': 0.076, 'mean_10_25': 0.178, 'max_10_25': 0.005, 'percScore_10_25': 0.037, 'entropy_10_25': 0.104, 'score_at_perc_10_25': 0.029, 'coef_var_10_25': 0.081, 'var_10_25': 0.154, 'mean_10_50': 0.06, 'kurt_10_50': 0.022, 'score_at_perc_10_50': 0.02, 'min_10_50': 0.044, 'var_10_50': 0.026, 'mean_25_75': 0.045, 'kurt_25_75': 0.053, 'skew_25_75': 0.024, 'percScore_25_75': 0.008, 'coef_var_25_75': 0.007, 'coef_kstatvar_25_75': 0.028}</t>
         </is>
       </c>
     </row>
@@ -503,7 +503,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'max_depth': 70, 'max_features': 0.4306513527112484, 'min_samples_leaf': 0.0013402527029597704, 'min_samples_split': 0.017108668788403877}</t>
+          <t>{'max_depth': 35, 'max_features': 0.4292397882860458, 'min_samples_leaf': 0.0015908140943763256, 'min_samples_split': 0.017620689206860357}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -522,19 +522,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D4" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'max_depth': 78, 'max_features': 0.3640835967772967, 'min_samples_leaf': 0.0020599907168432907, 'min_samples_split': 0.006194710475865894}</t>
+          <t>{'max_depth': 94, 'max_features': 0.5007060232869264, 'min_samples_leaf': 0.0017257183995622741, 'min_samples_split': 0.02210492108255021}</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.013, 'mean_10_25': 0.083, 'kurt_10_25': 0.046, 'skew_10_25': 0.007, 'percScore_10_25': 0.084, 'entropy_10_25': 0.025, 'score_at_perc_10_25': 0.056, 'coef_var_10_25': 0.08, 'min_10_25': 0.041, 'mean_10_50': 0.021, 'mad_10_50': 0.023, 'percScore_10_50': 0.036, 'score_at_perc_10_50': 0.035, 'coef_var_10_50': 0.065, 'coef_kstatvar_10_50': 0.046, 'min_10_50': 0.019, 'var_10_50': 0.014, 'max_25_75': 0.018, 'skew_25_75': 0.015, 'percScore_25_75': 0.008, 'score_at_perc_25_75': 0.015, 'coef_var_25_75': 0.021, 'min_25_75': 0.215, 'std_class_25_75': 0.014}</t>
+          <t>{'var_25_75': 0.017, 'mean_10_25': 0.115, 'max_10_25': 0.027, 'kurt_10_25': 0.025, 'percScore_10_25': 0.006, 'coef_var_10_25': 0.041, 'coef_kstatvar_10_25': 0.016, 'min_10_25': 0.049, 'mean_10_50': 0.019, 'kurt_10_50': 0.079, 'percScore_10_50': 0.016, 'entropy_10_50': 0.044, 'coef_var_10_50': 0.082, 'coef_kstatvar_10_50': 0.049, 'min_10_50': 0.027, 'var_10_50': 0.02, 'max_25_75': 0.053, 'skew_25_75': 0.015, 'coef_var_25_75': 0.028, 'min_25_75': 0.26, 'std_class_25_75': 0.016}</t>
         </is>
       </c>
     </row>
@@ -548,19 +548,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'max_depth': 60, 'max_features': 0.09774215599366706, 'min_samples_leaf': 0.044766922632900566, 'min_samples_split': 0.08561780658601142}</t>
+          <t>{'max_depth': 89, 'max_features': 0.09559075056782265, 'min_samples_leaf': 0.009978238440245396, 'min_samples_split': 0.026435373071002972}</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.131, 'kurt_10_25': 0.019, 'skew_10_25': 0.041, 'percScore_10_25': 0.099, 'entropy_10_25': 0.123, 'score_at_perc_10_25': 0.021, 'var_10_25': 0.243, 'max_10_50': 0.16, 'coef_kstatvar_10_50': 0.035, 'var_10_50': 0.072, 'skew_25_75': 0.002, 'coef_var_25_75': 0.053}</t>
+          <t>{'kurt_10_25': 0.051, 'percScore_10_25': 0.195, 'entropy_10_25': 0.017, 'score_at_perc_10_25': 0.06, 'coef_var_10_25': 0.016, 'min_10_25': 0.001, 'std_class_10_25': 0.015, 'var_10_25': 0.039, 'mean_10_50': 0.014, 'max_10_50': 0.131, 'kurt_10_50': 0.076, 'skew_10_50': 0.009, 'mad_10_50': 0.034, 'percScore_10_50': 0.027, 'entropy_10_50': 0.006, 'coef_var_10_50': 0.014, 'min_10_50': 0.023, 'std_class_10_50': 0.114, 'var_10_50': 0.031, 'mean_25_75': 0.034, 'max_25_75': 0.006, 'skew_25_75': 0.037, 'percScore_25_75': 0.028, 'coef_var_25_75': 0.01, 'min_25_75': 0.006, 'std_class_25_75': 0.006}</t>
         </is>
       </c>
     </row>
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'max_depth': 94, 'max_features': 0.29980441297778626, 'min_samples_leaf': 0.0018417382245291165, 'min_samples_split': 0.02527984428084426}</t>
+          <t>{'max_depth': 50, 'max_features': 0.5513213305375555, 'min_samples_leaf': 0.0011100113163000566, 'min_samples_split': 0.0021617642666770217}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.047, 'mean_10_25': 0.222, 'kurt_10_25': 0.037, 'percScore_10_25': 0.008, 'entropy_10_25': 0.031, 'score_at_perc_10_25': 0.021, 'coef_kstatvar_10_25': 0.024, 'min_10_25': 0.022, 'std_class_10_25': 0.057, 'var_10_25': 0.009, 'mean_10_50': 0.083, 'kurt_10_50': 0.026, 'coef_var_10_50': 0.016, 'min_10_50': 0.083, 'std_class_10_50': 0.064, 'mean_25_75': 0.155, 'percScore_25_75': 0.037, 'score_at_perc_25_75': 0.044, 'coef_var_25_75': 0.014}</t>
+          <t>{'var_25_75': 0.031, 'mean_10_25': 0.195, 'skew_10_25': 0.015, 'percScore_10_25': 0.021, 'entropy_10_25': 0.038, 'score_at_perc_10_25': 0.027, 'coef_kstatvar_10_25': 0.019, 'std_class_10_25': 0.054, 'var_10_25': 0.038, 'max_10_50': 0.005, 'skew_10_50': 0.013, 'score_at_perc_10_50': 0.011, 'coef_var_10_50': 0.032, 'coef_kstatvar_10_50': 0.011, 'min_10_50': 0.091, 'std_class_10_50': 0.014, 'var_10_50': 0.035, 'kurt_25_75': 0.036, 'skew_25_75': 0.045, 'percScore_25_75': 0.014, 'entropy_25_75': 0.015, 'coef_var_25_75': 0.011, 'min_25_75': 0.015, 'std_class_25_75': 0.215}</t>
         </is>
       </c>
     </row>
@@ -600,19 +600,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'max_depth': 41, 'max_features': 0.5680256276395477, 'min_samples_leaf': 0.009913552190800517, 'min_samples_split': 0.0875610542070796}</t>
+          <t>{'max_depth': 92, 'max_features': 0.5871132149633592, 'min_samples_leaf': 0.010695761758428651, 'min_samples_split': 0.04743239018474446}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.272, 'max_10_25': 0.013, 'entropy_10_25': 0.035, 'score_at_perc_10_25': 0.111, 'coef_var_10_25': 0.091, 'min_10_25': 0.055, 'kurt_10_50': 0.042, 'skew_10_50': 0.012, 'percScore_10_50': 0.049, 'kurt_25_75': 0.081, 'skew_25_75': 0.019, 'entropy_25_75': 0.016, 'coef_var_25_75': 0.176, 'min_25_75': 0.028}</t>
+          <t>{'mean_10_25': 0.303, 'skew_10_25': 0.005, 'percScore_10_25': 0.098, 'entropy_10_25': 0.031, 'coef_var_10_25': 0.11, 'min_10_25': 0.025, 'std_class_10_25': 0.114, 'kurt_10_50': 0.047, 'percScore_10_50': 0.044, 'coef_var_10_50': 0.011, 'mean_25_75': 0.004, 'score_at_perc_25_75': 0.026, 'coef_var_25_75': 0.156, 'min_25_75': 0.024, 'std_class_25_75': 0.004}</t>
         </is>
       </c>
     </row>
@@ -626,19 +626,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="D8" t="n">
-        <v>0.82</v>
+        <v>0.87</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'max_depth': 57, 'max_features': 0.13821625197113718, 'min_samples_leaf': 0.008962136992211019, 'min_samples_split': 0.020433495853331353}</t>
+          <t>{'max_depth': 30, 'max_features': 0.2528150790640493, 'min_samples_leaf': 0.01376833167175306, 'min_samples_split': 0.022588183986303016}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.008, 'mean_10_25': 0.019, 'max_10_25': 0.011, 'kurt_10_25': 0.051, 'score_at_perc_10_25': 0.049, 'coef_var_10_25': 0.008, 'coef_kstatvar_10_25': 0.129, 'min_10_25': 0.095, 'std_class_10_25': 0.077, 'var_10_25': 0.113, 'mean_10_50': 0.047, 'max_10_50': 0.066, 'skew_10_50': 0.01, 'percScore_10_50': 0.032, 'score_at_perc_10_50': 0.003, 'var_10_50': 0.004, 'mean_25_75': 0.043, 'max_25_75': 0.013, 'kurt_25_75': 0.014, 'percScore_25_75': 0.04, 'entropy_25_75': 0.026, 'coef_var_25_75': 0.032, 'min_25_75': 0.112}</t>
+          <t>{'var_25_75': 0.026, 'mean_10_25': 0.026, 'max_10_25': 0.056, 'kurt_10_25': 0.002, 'entropy_10_25': 0.042, 'score_at_perc_10_25': 0.017, 'coef_var_10_25': 0.105, 'coef_kstatvar_10_25': 0.054, 'min_10_25': 0.055, 'std_class_10_25': 0.067, 'var_10_25': 0.122, 'mean_10_50': 0.03, 'skew_10_50': 0.044, 'percScore_10_50': 0.006, 'score_at_perc_10_50': 0.028, 'coef_var_10_50': 0.083, 'min_10_50': 0.012, 'var_10_50': 0.006, 'kurt_25_75': 0.023, 'percScore_25_75': 0.028, 'entropy_25_75': 0.006, 'coef_var_25_75': 0.039, 'min_25_75': 0.123}</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'max_depth': 62, 'max_features': 0.7071755341652943, 'min_samples_leaf': 0.0017370636213611256, 'min_samples_split': 0.27982768780928763}</t>
+          <t>{'max_depth': 56, 'max_features': 0.7015882867408184, 'min_samples_leaf': 0.0012116527398210834, 'min_samples_split': 0.27814234504460555}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -678,19 +678,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="D10" t="n">
-        <v>0.85</v>
+        <v>0.72</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'max_depth': 93, 'max_features': 0.3917122419554948, 'min_samples_leaf': 0.014469112389205148, 'min_samples_split': 0.003477320051506194}</t>
+          <t>{'max_depth': 38, 'max_features': 0.8675615291581545, 'min_samples_leaf': 0.0013590441157789249, 'min_samples_split': 0.010419154997009567}</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.066, 'mean_10_25': 0.19, 'max_10_25': 0.028, 'kurt_10_25': 0.002, 'skew_10_25': 0.002, 'score_at_perc_10_25': 0.059, 'coef_kstatvar_10_25': 0.037, 'min_10_25': 0.017, 'std_class_10_25': 0.147, 'var_10_25': 0.02, 'mean_10_50': 0.002, 'score_at_perc_10_50': 0.086, 'coef_var_10_50': 0.074, 'coef_kstatvar_10_50': 0.01, 'min_10_50': 0.019, 'std_class_10_50': 0.02, 'mean_25_75': 0.116, 'max_25_75': 0.022, 'percScore_25_75': 0.007, 'score_at_perc_25_75': 0.021, 'min_25_75': 0.054}</t>
+          <t>{'mean_10_25': 0.159, 'max_10_25': 0.05, 'kurt_10_25': 0.011, 'skew_10_25': 0.029, 'percScore_10_25': 0.006, 'entropy_10_25': 0.011, 'score_at_perc_10_25': 0.044, 'coef_var_10_25': 0.043, 'coef_kstatvar_10_25': 0.011, 'min_10_25': 0.055, 'std_class_10_25': 0.082, 'var_10_25': 0.019, 'max_10_50': 0.02, 'skew_10_50': 0.024, 'entropy_10_50': 0.011, 'score_at_perc_10_50': 0.051, 'min_10_50': 0.07, 'std_class_10_50': 0.017, 'var_10_50': 0.01, 'mean_25_75': 0.077, 'max_25_75': 0.02, 'kurt_25_75': 0.054, 'percScore_25_75': 0.012, 'coef_var_25_75': 0.104, 'std_class_25_75': 0.01}</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'max_depth': 59, 'max_features': 0.466405796381062, 'min_samples_leaf': 0.0021006874051693425, 'min_samples_split': 0.011977583007326334}</t>
+          <t>{'max_depth': 64, 'max_features': 0.46898369839295784, 'min_samples_leaf': 0.001170805325907688, 'min_samples_split': 0.01070383552053191}</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{'max_depth': 93, 'max_features': 0.4426516470984239, 'min_samples_leaf': 0.001006051970002416, 'min_samples_split': 0.01169896150812118}</t>
+          <t>{'max_depth': 60, 'max_features': 0.4591182007036392, 'min_samples_leaf': 0.0014512529093533176, 'min_samples_split': 0.010676680543261263}</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -756,19 +756,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.93</v>
+        <v>0.84</v>
       </c>
       <c r="D13" t="n">
-        <v>0.82</v>
+        <v>0.77</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'max_depth': 54, 'max_features': 0.4741642002217654, 'min_samples_leaf': 0.011244923180106538, 'min_samples_split': 0.011529698590865625}</t>
+          <t>{'max_depth': 22, 'max_features': 0.6301226829525045, 'min_samples_leaf': 0.0391747111090098, 'min_samples_split': 0.07624967642424162}</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.162, 'max_10_25': 0.055, 'entropy_10_25': 0.022, 'score_at_perc_10_25': 0.022, 'coef_var_10_25': 0.051, 'min_10_25': 0.02, 'std_class_10_25': 0.15, 'var_10_25': 0.066, 'kurt_10_50': 0.035, 'percScore_10_50': 0.036, 'coef_var_10_50': 0.04, 'std_class_10_50': 0.046, 'var_10_50': 0.007, 'mean_25_75': 0.113, 'kurt_25_75': 0.012, 'skew_25_75': 0.002, 'percScore_25_75': 0.017, 'entropy_25_75': 0.064, 'coef_var_25_75': 0.021, 'coef_kstatvar_25_75': 0.013, 'min_25_75': 0.045, 'std_class_25_75': 0.002}</t>
+          <t>{'mean_10_25': 0.234, 'max_10_25': 0.111, 'score_at_perc_10_25': 0.008, 'std_class_10_25': 0.087, 'var_10_25': 0.101, 'coef_var_10_50': 0.043, 'min_10_50': 0.043, 'mean_25_75': 0.112, 'max_25_75': 0.084, 'min_25_75': 0.178}</t>
         </is>
       </c>
     </row>
@@ -789,12 +789,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'max_depth': 15, 'max_features': 0.3937188981140025, 'min_samples_leaf': 0.0013882901412829586, 'min_samples_split': 0.019317116726409598}</t>
+          <t>{'max_depth': 67, 'max_features': 0.39428541625215197, 'min_samples_leaf': 0.0017108181238603155, 'min_samples_split': 0.02329019889716233}</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.021, 'mean_10_25': 0.077, 'max_10_25': 0.036, 'kurt_10_25': 0.013, 'skew_10_25': 0.003, 'entropy_10_25': 0.01, 'score_at_perc_10_25': 0.015, 'coef_var_10_25': 0.105, 'coef_kstatvar_10_25': 0.058, 'min_10_25': 0.073, 'var_10_25': 0.026, 'kurt_10_50': 0.019, 'skew_10_50': 0.021, 'percScore_10_50': 0.022, 'entropy_10_50': 0.042, 'score_at_perc_10_50': 0.012, 'coef_var_10_50': 0.05, 'min_10_50': 0.053, 'std_class_10_50': 0.012, 'var_10_50': 0.004, 'mean_25_75': 0.027, 'max_25_75': 0.012, 'skew_25_75': 0.062, 'entropy_25_75': 0.044, 'score_at_perc_25_75': 0.033, 'coef_var_25_75': 0.023, 'min_25_75': 0.128}</t>
+          <t>{'var_25_75': 0.021, 'mean_10_25': 0.077, 'max_10_25': 0.036, 'kurt_10_25': 0.026, 'skew_10_25': 0.003, 'entropy_10_25': 0.01, 'score_at_perc_10_25': 0.015, 'coef_var_10_25': 0.105, 'coef_kstatvar_10_25': 0.058, 'min_10_25': 0.073, 'var_10_25': 0.025, 'kurt_10_50': 0.019, 'skew_10_50': 0.021, 'percScore_10_50': 0.022, 'entropy_10_50': 0.042, 'coef_var_10_50': 0.05, 'min_10_50': 0.053, 'std_class_10_50': 0.012, 'var_10_50': 0.027, 'mean_25_75': 0.027, 'max_25_75': 0.012, 'skew_25_75': 0.04, 'entropy_25_75': 0.044, 'score_at_perc_25_75': 0.033, 'coef_var_25_75': 0.023, 'min_25_75': 0.127}</t>
         </is>
       </c>
     </row>
@@ -808,19 +808,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="D15" t="n">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>{'max_depth': 41, 'max_features': 0.6223437831878337, 'min_samples_leaf': 0.0018273553543166846, 'min_samples_split': 0.001490248845345418}</t>
+          <t>{'max_depth': 48, 'max_features': 0.22277965502819885, 'min_samples_leaf': 0.001417695630403818, 'min_samples_split': 0.011736871387238196}</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.02, 'mean_10_25': 0.166, 'max_10_25': 0.021, 'kurt_10_25': 0.042, 'skew_10_25': 0.01, 'percScore_10_25': 0.02, 'entropy_10_25': 0.012, 'coef_var_10_25': 0.028, 'coef_kstatvar_10_25': 0.005, 'min_10_25': 0.047, 'std_class_10_25': 0.044, 'var_10_25': 0.048, 'mean_10_50': 0.009, 'kurt_10_50': 0.05, 'skew_10_50': 0.017, 'score_at_perc_10_50': 0.014, 'coef_kstatvar_10_50': 0.011, 'min_10_50': 0.059, 'std_class_10_50': 0.059, 'var_10_50': 0.02, 'mean_25_75': 0.067, 'max_25_75': 0.039, 'kurt_25_75': 0.005, 'coef_var_25_75': 0.019, 'min_25_75': 0.143, 'std_class_25_75': 0.024}</t>
+          <t>{'var_25_75': 0.036, 'mean_10_25': 0.055, 'max_10_25': 0.034, 'entropy_10_25': 0.033, 'score_at_perc_10_25': 0.032, 'coef_var_10_25': 0.091, 'coef_kstatvar_10_25': 0.014, 'min_10_25': 0.042, 'var_10_25': 0.138, 'max_10_50': 0.013, 'kurt_10_50': 0.038, 'skew_10_50': 0.031, 'percScore_10_50': 0.014, 'entropy_10_50': 0.01, 'score_at_perc_10_50': 0.003, 'coef_var_10_50': 0.034, 'min_10_50': 0.016, 'std_class_10_50': 0.033, 'var_10_50': 0.019, 'mean_25_75': 0.028, 'max_25_75': 0.009, 'kurt_25_75': 0.006, 'skew_25_75': 0.043, 'entropy_25_75': 0.01, 'score_at_perc_25_75': 0.02, 'coef_var_25_75': 0.036, 'coef_kstatvar_25_75': 0.054, 'min_25_75': 0.11}</t>
         </is>
       </c>
     </row>
@@ -834,19 +834,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>{'max_depth': 13, 'max_features': 0.2743839453847471, 'min_samples_leaf': 0.0011004948099175738, 'min_samples_split': 0.010552866493269409}</t>
+          <t>{'max_depth': 68, 'max_features': 0.5182712276846091, 'min_samples_leaf': 0.001122980877744921, 'min_samples_split': 0.0023925005766450395}</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.158, 'max_10_25': 0.029, 'skew_10_25': 0.021, 'percScore_10_25': 0.004, 'entropy_10_25': 0.01, 'score_at_perc_10_25': 0.052, 'coef_var_10_25': 0.011, 'min_10_25': 0.054, 'std_class_10_25': 0.063, 'var_10_25': 0.03, 'kurt_10_50': 0.105, 'skew_10_50': 0.017, 'score_at_perc_10_50': 0.012, 'coef_var_10_50': 0.11, 'min_10_50': 0.055, 'std_class_10_50': 0.015, 'var_10_50': 0.016, 'mean_25_75': 0.039, 'max_25_75': 0.019, 'kurt_25_75': 0.014, 'entropy_25_75': 0.011, 'score_at_perc_25_75': 0.001, 'coef_var_25_75': 0.02, 'min_25_75': 0.011, 'std_class_25_75': 0.125}</t>
+          <t>{'var_25_75': 0.006, 'mean_10_25': 0.172, 'max_10_25': 0.018, 'skew_10_25': 0.022, 'percScore_10_25': 0.01, 'score_at_perc_10_25': 0.011, 'coef_var_10_25': 0.064, 'coef_kstatvar_10_25': 0.008, 'min_10_25': 0.102, 'std_class_10_25': 0.046, 'var_10_25': 0.104, 'mean_10_50': 0.02, 'kurt_10_50': 0.057, 'skew_10_50': 0.016, 'percScore_10_50': 0.014, 'entropy_10_50': 0.018, 'score_at_perc_10_50': 0.009, 'coef_kstatvar_10_50': 0.024, 'min_10_50': 0.003, 'std_class_10_50': 0.009, 'var_10_50': 0.026, 'mean_25_75': 0.031, 'max_25_75': 0.006, 'skew_25_75': 0.01, 'entropy_25_75': 0.005, 'score_at_perc_25_75': 0.025, 'coef_var_25_75': 0.051, 'min_25_75': 0.107, 'std_class_25_75': 0.008}</t>
         </is>
       </c>
     </row>
